--- a/emails.xlsx
+++ b/emails.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>post@handwerksmakler.com</t>
+          <t>info@tischlerei-schroeder.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>info@malas-handwerk.de</t>
+          <t>info@aiko-gmbh.de</t>
         </is>
       </c>
     </row>
@@ -464,42 +464,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>elda-handwerk.ek@gmx.de</t>
+          <t>info@hhl-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>krichlingdach@aol.com</t>
+          <t>urban.celine1996@gmx.de</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>info@mghandwerk.de</t>
+          <t>m-v-schnee@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>info@bienemann-gebaeudeservice.de</t>
+          <t>info@ormanns-inkasso.de</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>style.dach@gmail.com</t>
+          <t>info@malas-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>m-v-schnee@hotmail.com</t>
+          <t>speedysumzugst@gmail.com</t>
         </is>
       </c>
     </row>
@@ -513,91 +513,91 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>heike1975@gmx.de</t>
+          <t>info@grs-consult.de</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sven-frey@gmx.de</t>
+          <t>info@autoglas-reifenberger.de</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>glasereibrandt@t-online.de</t>
+          <t>heike1975@gmx.de</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>info@tischlerei-schroeder.com</t>
+          <t>elda-handwerk.ek@gmx.de</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>heike1975@gmx.de</t>
+          <t>info@hr-success.de</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>info@hr-success.de</t>
+          <t>style.dach@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>info@hhl-handwerk.de</t>
+          <t>elda-handwerk.ek@gmx.de</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>style.dach@gmail.com</t>
+          <t>m-v-schnee@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>urban.celine1996@gmx.de</t>
+          <t>post@handwerksmakler.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>info@malas-handwerk.de</t>
+          <t>info@bienemann-gebaeudeservice.de</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>speedysumzugst@gmail.com</t>
+          <t>heike1975@gmx.de</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>info@tischlerei-schroeder.com</t>
+          <t>info@grs-consult.de</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hans-joachim.faber@signal-iduna.net</t>
+          <t>technik@buescher-kommunikation.de</t>
         </is>
       </c>
     </row>
@@ -611,119 +611,126 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ve@noris-handwerk.de</t>
+          <t>service@tischlerei-brauer.de</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>service@tischlerei-brauer.de</t>
+          <t>info@nordflut.de</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>henning.behme@t-online.de</t>
+          <t>g.notman@hsn-fullservice.de</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>info@handwerkholzbau.de</t>
+          <t>hans-joachim.faber@signal-iduna.net</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>info@ostseehusservice.com</t>
+          <t>europahandwerk@web.de</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>haustechnik.huber@gmail.com</t>
+          <t>info@ostseehusservice.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>g.notman@hsn-fullservice.de</t>
+          <t>hans-joachim.faber@signal-iduna.net</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>info@nordflut.de</t>
+          <t>service@tischlerei-brauer.de</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>henning.behme@t-online.de</t>
+          <t>info@eig-handwerker.de</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hans-joachim.faber@signal-iduna.net</t>
+          <t>g.notman@hsn-fullservice.de</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>europahandwerk@web.de</t>
+          <t>saiti90@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>service@tischlerei-brauer.de</t>
+          <t>leopard.tuh@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>info.rueckert@mecklenburgische.com</t>
+          <t>info@handwerkholzbau.de</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>saiti90@hotmail.com</t>
+          <t>ve@noris-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>info@handwerkholzbau.de</t>
+          <t>haustechnik.huber@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>kwb@kwservice.de</t>
+          <t>henning.behme@t-online.de</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kontakt@schreinereiobermaier.de</t>
+          <t>kwb@kwservice.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>info@danielaterbrack.de</t>
         </is>
       </c>
     </row>

--- a/emails.xlsx
+++ b/emails.xlsx
@@ -443,14 +443,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>info@tischlerei-schroeder.com</t>
+          <t>info@bienemann-gebaeudeservice.de</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>info@aiko-gmbh.de</t>
+          <t>speedysumzugst@gmail.com</t>
         </is>
       </c>
     </row>
@@ -464,77 +464,77 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>info@hhl-handwerk.de</t>
+          <t>heike1975@gmx.de</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>urban.celine1996@gmx.de</t>
+          <t>info@tischlerei-schroeder.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>m-v-schnee@hotmail.com</t>
+          <t>info@dieter-werner.de</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>info@ormanns-inkasso.de</t>
+          <t>info@hhl-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>info@malas-handwerk.de</t>
+          <t>info@autoglas-reifenberger.de</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>speedysumzugst@gmail.com</t>
+          <t>post@handwerksmakler.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>info@dieter-werner.de</t>
+          <t>m-v-schnee@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>info@grs-consult.de</t>
+          <t>glasereibrandt@t-online.de</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>info@autoglas-reifenberger.de</t>
+          <t>info@malas-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>heike1975@gmx.de</t>
+          <t>krichlingdach@aol.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>elda-handwerk.ek@gmx.de</t>
+          <t>info@ormanns-inkasso.de</t>
         </is>
       </c>
     </row>
@@ -548,119 +548,119 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>style.dach@gmail.com</t>
+          <t>info@bayerischer-jobtitan.de</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>elda-handwerk.ek@gmx.de</t>
+          <t>info@ormanns-inkasso.de</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>m-v-schnee@hotmail.com</t>
+          <t>glasereibrandt@t-online.de</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>post@handwerksmakler.com</t>
+          <t>info@malas-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>info@bienemann-gebaeudeservice.de</t>
+          <t>speedysumzugst@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>heike1975@gmx.de</t>
+          <t>info@grs-consult.de</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>info@grs-consult.de</t>
+          <t>info@bienemann-gebaeudeservice.de</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>technik@buescher-kommunikation.de</t>
+          <t>saiti90@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>info@eig-handwerker.de</t>
+          <t>info.rueckert@mecklenburgische.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>service@tischlerei-brauer.de</t>
+          <t>handwerk.service@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>info@nordflut.de</t>
+          <t>kanzlei@cyfire.net</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>g.notman@hsn-fullservice.de</t>
+          <t>amhandwerk@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hans-joachim.faber@signal-iduna.net</t>
+          <t>ve@noris-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>europahandwerk@web.de</t>
+          <t>info@ostseehusservice.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>info@ostseehusservice.com</t>
+          <t>haustechnik.huber@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hans-joachim.faber@signal-iduna.net</t>
+          <t>europahandwerk@web.de</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>service@tischlerei-brauer.de</t>
+          <t>leopard.tuh@gmail.com</t>
         </is>
       </c>
     </row>
@@ -674,42 +674,42 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>g.notman@hsn-fullservice.de</t>
+          <t>ve@noris-handwerk.de</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>saiti90@hotmail.com</t>
+          <t>info@ostseehusservice.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>leopard.tuh@gmail.com</t>
+          <t>info.rueckert@mecklenburgische.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>info@handwerkholzbau.de</t>
+          <t>service@tischlerei-brauer.de</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ve@noris-handwerk.de</t>
+          <t>hans-joachim.faber@signal-iduna.net</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>haustechnik.huber@gmail.com</t>
+          <t>handwerk.service@hotmail.com</t>
         </is>
       </c>
     </row>
@@ -723,14 +723,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>kwb@kwservice.de</t>
+          <t>info@dittmer-service.de</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>info@danielaterbrack.de</t>
+          <t>info@ado-berlin.de</t>
         </is>
       </c>
     </row>
